--- a/02_data/cleandata/studylist_evidencemap_comparision.xlsx
+++ b/02_data/cleandata/studylist_evidencemap_comparision.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB112"/>
+  <dimension ref="A1:AB111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -581,7 +581,7 @@
         </is>
       </c>
       <c r="Z2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="Z4">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
@@ -886,7 +886,7 @@
         </is>
       </c>
       <c r="Z5">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="Z8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         </is>
       </c>
       <c r="Z11">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         </is>
       </c>
       <c r="Z12">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         </is>
       </c>
       <c r="Z13">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="Z14">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
@@ -1976,7 +1976,7 @@
         </is>
       </c>
       <c r="Z15">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         </is>
       </c>
       <c r="Z17">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
@@ -2586,7 +2586,7 @@
         </is>
       </c>
       <c r="Z21">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
         </is>
       </c>
       <c r="Z22">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="Z23">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="Z28">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Kristensen and Cadenhead</t>
+          <t>Kristensen</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -3362,7 +3362,7 @@
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>KristensenandCadenhead</t>
+          <t>Kristensen</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
@@ -3372,12 +3372,12 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>kristensenandcadenhead_2007_chr</t>
+          <t>kristensen_2007_chr</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>kristensenandcadenhead_2007</t>
+          <t>kristensen_2007</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
@@ -3386,11 +3386,11 @@
         </is>
       </c>
       <c r="Z29">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
@@ -3616,7 +3616,7 @@
         </is>
       </c>
       <c r="Z31">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
@@ -4102,17 +4102,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Kristensen (2007)</t>
+          <t>Dragt (2010)</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Kristensen</t>
+          <t>Dragt</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2010</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -4137,7 +4137,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -4147,22 +4147,22 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>78.57</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>Kristensen</t>
+          <t>Dragt</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
@@ -4172,12 +4172,12 @@
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>kristensen_2007_chr</t>
+          <t>dragt_2010_chr</t>
         </is>
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>kristensen_2007</t>
+          <t>dragt_2010</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
@@ -4186,7 +4186,7 @@
         </is>
       </c>
       <c r="Z36">
-        <v>170</v>
+        <v>89</v>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>kristensen_2007</t>
+          <t>dragt_2010</t>
         </is>
       </c>
     </row>
@@ -4212,17 +4212,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Dragt (2010)</t>
+          <t>Buchy (2015(NAPLS))</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Dragt</t>
+          <t>Buchy</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -4247,7 +4247,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -4257,12 +4257,12 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>1.91</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
@@ -4272,7 +4272,7 @@
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>Dragt</t>
+          <t>Buchy</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
@@ -4282,12 +4282,12 @@
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>dragt_2010_chr</t>
+          <t>buchy_2015_chr</t>
         </is>
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>dragt_2010</t>
+          <t>buchy_2015</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="Z37">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
@@ -4305,7 +4305,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>dragt_2010</t>
+          <t>buchy_2015</t>
         </is>
       </c>
     </row>
@@ -4322,17 +4322,17 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Buchy (2015(NAPLS))</t>
+          <t>McHugh (2017)</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Buchy</t>
+          <t>McHugh</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -4357,7 +4357,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -4367,12 +4367,12 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
@@ -4382,7 +4382,7 @@
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>Buchy</t>
+          <t>McHugh</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
@@ -4392,12 +4392,12 @@
       </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t>buchy_2015_chr</t>
+          <t>mchugh_2017_chr</t>
         </is>
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>buchy_2015</t>
+          <t>mchugh_2017</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
@@ -4406,7 +4406,7 @@
         </is>
       </c>
       <c r="Z38">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
@@ -4415,7 +4415,7 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>buchy_2015</t>
+          <t>mchugh_2017</t>
         </is>
       </c>
     </row>
@@ -4432,12 +4432,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>McHugh (2017)</t>
+          <t>Addington (2017)</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>McHugh</t>
+          <t>Addington</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -4447,7 +4447,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Farris (2019)</t>
+          <t>Oliver(2020)</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -4467,32 +4467,17 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>RR</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>2.68</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>McHugh</t>
+          <t>Addington</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
@@ -4502,12 +4487,12 @@
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t>mchugh_2017_chr</t>
+          <t>addington_2017_chr</t>
         </is>
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>mchugh_2017</t>
+          <t>addington_2017</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
@@ -4516,7 +4501,7 @@
         </is>
       </c>
       <c r="Z39">
-        <v>203</v>
+        <v>5</v>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
@@ -4525,7 +4510,7 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>mchugh_2017</t>
+          <t>addington_2017</t>
         </is>
       </c>
     </row>
@@ -4542,12 +4527,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Addington (2017)</t>
+          <t>Atkinson (2017)</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Addington</t>
+          <t>Atkinson</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -4575,19 +4560,9 @@
           <t>cohort</t>
         </is>
       </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>Addington</t>
+          <t>Atkinson</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
@@ -4597,12 +4572,12 @@
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>addington_2017_chr</t>
+          <t>atkinson_2017_chr</t>
         </is>
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>addington_2017</t>
+          <t>atkinson_2017</t>
         </is>
       </c>
       <c r="Y40" t="inlineStr">
@@ -4611,7 +4586,7 @@
         </is>
       </c>
       <c r="Z40">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
@@ -4620,7 +4595,7 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>addington_2017</t>
+          <t>atkinson_2017</t>
         </is>
       </c>
     </row>
@@ -4637,17 +4612,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Atkinson (2017)</t>
+          <t>Berger (2016)</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Atkinson</t>
+          <t>Berger</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -4672,7 +4647,7 @@
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>Atkinson</t>
+          <t>Berger</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
@@ -4682,12 +4657,12 @@
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>atkinson_2017_chr</t>
+          <t>berger_2016_chr</t>
         </is>
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>atkinson_2017</t>
+          <t>berger_2016</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr">
@@ -4696,7 +4671,7 @@
         </is>
       </c>
       <c r="Z41">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
@@ -4705,7 +4680,7 @@
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>atkinson_2017</t>
+          <t>berger_2016</t>
         </is>
       </c>
     </row>
@@ -4722,17 +4697,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Berger (2016)</t>
+          <t>Bloeman (2010)</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Berger</t>
+          <t>Bloemen</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2010</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -4757,7 +4732,7 @@
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>Berger</t>
+          <t>Bloemen</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
@@ -4767,12 +4742,12 @@
       </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t>berger_2016_chr</t>
+          <t>bloemen_2010_chr</t>
         </is>
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>berger_2016</t>
+          <t>bloemen_2009</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr">
@@ -4781,7 +4756,7 @@
         </is>
       </c>
       <c r="Z42">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
@@ -4790,7 +4765,7 @@
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>berger_2016</t>
+          <t>bloemen_2009</t>
         </is>
       </c>
     </row>
@@ -4807,17 +4782,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Bloeman (2010)</t>
+          <t>Bousman (2013)</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Bloemen</t>
+          <t>Bousman</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -4842,7 +4817,7 @@
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>Bloemen</t>
+          <t>Bousman</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
@@ -4852,12 +4827,12 @@
       </c>
       <c r="W43" t="inlineStr">
         <is>
-          <t>bloemen_2010_chr</t>
+          <t>bousman_2013_chr</t>
         </is>
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>bloemen_2010</t>
+          <t>bousman_2013</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr">
@@ -4866,16 +4841,16 @@
         </is>
       </c>
       <c r="Z43">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>bloemen_2009</t>
+          <t>bousman_2013</t>
         </is>
       </c>
     </row>
@@ -4892,17 +4867,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Bousman (2013)</t>
+          <t>Deighton (2016)</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Bousman</t>
+          <t>Deighton</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -4927,7 +4902,7 @@
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>Bousman</t>
+          <t>Deighton</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
@@ -4937,12 +4912,12 @@
       </c>
       <c r="W44" t="inlineStr">
         <is>
-          <t>bousman_2013_chr</t>
+          <t>deighton_2016_chr</t>
         </is>
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>bousman_2013</t>
+          <t>deighton_2016</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr">
@@ -4951,16 +4926,16 @@
         </is>
       </c>
       <c r="Z44">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>bousman_2013</t>
+          <t>bechtold_2016</t>
         </is>
       </c>
     </row>
@@ -4977,17 +4952,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Deighton (2016)</t>
+          <t>DeVylder (2014)</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Deighton</t>
+          <t>DeVylder</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -5012,7 +4987,7 @@
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>Deighton</t>
+          <t>DeVylder</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
@@ -5022,12 +4997,12 @@
       </c>
       <c r="W45" t="inlineStr">
         <is>
-          <t>deighton_2016_chr</t>
+          <t>devylder_2014_chr</t>
         </is>
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>deighton_2016</t>
+          <t>devylder_2014</t>
         </is>
       </c>
       <c r="Y45" t="inlineStr">
@@ -5036,16 +5011,16 @@
         </is>
       </c>
       <c r="Z45">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>bechtold_2016</t>
+          <t>devylder_2014</t>
         </is>
       </c>
     </row>
@@ -5062,17 +5037,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>DeVylder (2014)</t>
+          <t>Focking (2016)</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>DeVylder</t>
+          <t>Foecking</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -5097,7 +5072,7 @@
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>DeVylder</t>
+          <t>Foecking</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
@@ -5107,12 +5082,12 @@
       </c>
       <c r="W46" t="inlineStr">
         <is>
-          <t>devylder_2014_chr</t>
+          <t>foecking_2016_chr</t>
         </is>
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>devylder_2014</t>
+          <t>foecking_2016</t>
         </is>
       </c>
       <c r="Y46" t="inlineStr">
@@ -5121,7 +5096,7 @@
         </is>
       </c>
       <c r="Z46">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="AA46" t="inlineStr">
         <is>
@@ -5130,7 +5105,7 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>devylder_2014</t>
+          <t>foecking_2016</t>
         </is>
       </c>
     </row>
@@ -5147,17 +5122,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Focking (2016)</t>
+          <t>Labad (2015)</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Foecking</t>
+          <t>Labad</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -5182,7 +5157,7 @@
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>Foecking</t>
+          <t>Labad</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
@@ -5192,12 +5167,12 @@
       </c>
       <c r="W47" t="inlineStr">
         <is>
-          <t>foecking_2016_chr</t>
+          <t>labad_2015_chr</t>
         </is>
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>foecking_2016</t>
+          <t>labad_2015</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
@@ -5206,7 +5181,7 @@
         </is>
       </c>
       <c r="Z47">
-        <v>107</v>
+        <v>172</v>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
@@ -5215,7 +5190,7 @@
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>foecking_2016</t>
+          <t>labad_2015</t>
         </is>
       </c>
     </row>
@@ -5232,17 +5207,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Labad (2015)</t>
+          <t>Lavoie (2014)</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Labad</t>
+          <t>Lavoie</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -5267,7 +5242,7 @@
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>Labad</t>
+          <t>Lavoie</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
@@ -5277,12 +5252,12 @@
       </c>
       <c r="W48" t="inlineStr">
         <is>
-          <t>labad_2015_chr</t>
+          <t>lavoie_2014_chr</t>
         </is>
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>labad_2015</t>
+          <t>lavoie_2014</t>
         </is>
       </c>
       <c r="Y48" t="inlineStr">
@@ -5291,16 +5266,16 @@
         </is>
       </c>
       <c r="Z48">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>labad_2015</t>
+          <t>lavoie_2012</t>
         </is>
       </c>
     </row>
@@ -5317,12 +5292,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Lavoie (2014)</t>
+          <t>Nieman (2014)</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Lavoie</t>
+          <t>Nieman</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -5352,7 +5327,7 @@
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>Lavoie</t>
+          <t>Nieman</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
@@ -5362,12 +5337,12 @@
       </c>
       <c r="W49" t="inlineStr">
         <is>
-          <t>lavoie_2014_chr</t>
+          <t>nieman_2014_chr</t>
         </is>
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>lavoie_2014</t>
+          <t>nieman_2014</t>
         </is>
       </c>
       <c r="Y49" t="inlineStr">
@@ -5376,16 +5351,16 @@
         </is>
       </c>
       <c r="Z49">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>lavoie_2012</t>
+          <t>nieman_2014</t>
         </is>
       </c>
     </row>
@@ -5402,17 +5377,17 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Nieman (2014)</t>
+          <t>Riecher-Rossler (2009)</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Nieman</t>
+          <t>Riecher-Rössler</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2009</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -5437,7 +5412,7 @@
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>Nieman</t>
+          <t>Riecher-Rössler</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
@@ -5447,12 +5422,12 @@
       </c>
       <c r="W50" t="inlineStr">
         <is>
-          <t>nieman_2014_chr</t>
+          <t>riecher-rössler_2009_chr</t>
         </is>
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>nieman_2014</t>
+          <t>riecher-rössler_2009</t>
         </is>
       </c>
       <c r="Y50" t="inlineStr">
@@ -5461,7 +5436,7 @@
         </is>
       </c>
       <c r="Z50">
-        <v>216</v>
+        <v>249</v>
       </c>
       <c r="AA50" t="inlineStr">
         <is>
@@ -5470,7 +5445,7 @@
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>nieman_2014</t>
+          <t>riecher-rössler_2009</t>
         </is>
       </c>
     </row>
@@ -5487,17 +5462,17 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Riecher-Rossler (2009)</t>
+          <t>Seidman (2016)</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Riecher-Rössler</t>
+          <t>Seidman</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -5522,7 +5497,7 @@
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>Riecher-Rössler</t>
+          <t>Seidman</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
@@ -5532,12 +5507,12 @@
       </c>
       <c r="W51" t="inlineStr">
         <is>
-          <t>riecher-rössler_2009_chr</t>
+          <t>seidman_2016_chr</t>
         </is>
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>riecher-rössler_2009</t>
+          <t>seidman_2016</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr">
@@ -5546,7 +5521,7 @@
         </is>
       </c>
       <c r="Z51">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="AA51" t="inlineStr">
         <is>
@@ -5555,7 +5530,7 @@
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>riecher-rössler_2009</t>
+          <t>seidman_2016</t>
         </is>
       </c>
     </row>
@@ -5572,17 +5547,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Seidman (2016)</t>
+          <t>Velthorst (2009)</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Seidman</t>
+          <t>Velthorst</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2009</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -5607,7 +5582,7 @@
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>Seidman</t>
+          <t>Velthorst</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
@@ -5617,12 +5592,12 @@
       </c>
       <c r="W52" t="inlineStr">
         <is>
-          <t>seidman_2016_chr</t>
+          <t>velthorst_2009_chr</t>
         </is>
       </c>
       <c r="X52" t="inlineStr">
         <is>
-          <t>seidman_2016</t>
+          <t>velthorst_2009</t>
         </is>
       </c>
       <c r="Y52" t="inlineStr">
@@ -5631,7 +5606,7 @@
         </is>
       </c>
       <c r="Z52">
-        <v>278</v>
+        <v>320</v>
       </c>
       <c r="AA52" t="inlineStr">
         <is>
@@ -5640,7 +5615,7 @@
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>seidman_2016</t>
+          <t>velthorst_2009</t>
         </is>
       </c>
     </row>
@@ -5657,17 +5632,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Velthorst (2009)</t>
+          <t>Ziermans (2011)</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Velthorst</t>
+          <t>Ziermans</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -5692,7 +5667,7 @@
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>Velthorst</t>
+          <t>Ziermans</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
@@ -5702,12 +5677,12 @@
       </c>
       <c r="W53" t="inlineStr">
         <is>
-          <t>velthorst_2009_chr</t>
+          <t>ziermans_2011_chr</t>
         </is>
       </c>
       <c r="X53" t="inlineStr">
         <is>
-          <t>velthorst_2009</t>
+          <t>ziermans_2011</t>
         </is>
       </c>
       <c r="Y53" t="inlineStr">
@@ -5716,7 +5691,7 @@
         </is>
       </c>
       <c r="Z53">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="AA53" t="inlineStr">
         <is>
@@ -5725,7 +5700,7 @@
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>velthorst_2009</t>
+          <t>ziermans_2011</t>
         </is>
       </c>
     </row>
@@ -5737,27 +5712,27 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>transition</t>
+          <t>CHR symptoms</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Ziermans (2011)</t>
+          <t>Korver  (2010)</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Ziermans</t>
+          <t>Korver</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2010</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Oliver(2020)</t>
+          <t>Van de Meer(2012)</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -5767,7 +5742,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>transition to psychosis</t>
+          <t>CHR symptoms</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -5775,9 +5750,14 @@
           <t>cohort</t>
         </is>
       </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>Ziermans</t>
+          <t>Korver</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
@@ -5787,12 +5767,12 @@
       </c>
       <c r="W54" t="inlineStr">
         <is>
-          <t>ziermans_2011_chr</t>
+          <t>korver_2010_chr</t>
         </is>
       </c>
       <c r="X54" t="inlineStr">
         <is>
-          <t>ziermans_2011</t>
+          <t>korver_2010</t>
         </is>
       </c>
       <c r="Y54" t="inlineStr">
@@ -5801,7 +5781,7 @@
         </is>
       </c>
       <c r="Z54">
-        <v>338</v>
+        <v>166</v>
       </c>
       <c r="AA54" t="inlineStr">
         <is>
@@ -5810,7 +5790,7 @@
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>ziermans_2011</t>
+          <t>korver_2010</t>
         </is>
       </c>
     </row>
@@ -5827,12 +5807,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Korver  (2010)</t>
+          <t>Machielsen (2010)</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Korver</t>
+          <t>Machielsen</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -5862,12 +5842,12 @@
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>Korver</t>
+          <t>Machielsen</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
@@ -5877,12 +5857,12 @@
       </c>
       <c r="W55" t="inlineStr">
         <is>
-          <t>korver_2010_chr</t>
+          <t>machielsen_2010_chr</t>
         </is>
       </c>
       <c r="X55" t="inlineStr">
         <is>
-          <t>korver_2010</t>
+          <t>machielsen_2010</t>
         </is>
       </c>
       <c r="Y55" t="inlineStr">
@@ -5891,7 +5871,7 @@
         </is>
       </c>
       <c r="Z55">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="AA55" t="inlineStr">
         <is>
@@ -5900,7 +5880,7 @@
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>korver_2010</t>
+          <t>machielsen_2010</t>
         </is>
       </c>
     </row>
@@ -5917,17 +5897,17 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Machielsen (2010)</t>
+          <t>Peters  (2009)</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Machielsen</t>
+          <t>Peters</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>2009</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -5952,12 +5932,12 @@
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>Machielsen</t>
+          <t>Peters</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
@@ -5967,12 +5947,12 @@
       </c>
       <c r="W56" t="inlineStr">
         <is>
-          <t>machielsen_2010_chr</t>
+          <t>peters_2009_chr</t>
         </is>
       </c>
       <c r="X56" t="inlineStr">
         <is>
-          <t>machielsen_2010</t>
+          <t>peters_2009</t>
         </is>
       </c>
       <c r="Y56" t="inlineStr">
@@ -5981,16 +5961,16 @@
         </is>
       </c>
       <c r="Z56">
-        <v>183</v>
+        <v>231</v>
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>machielsen_2010</t>
+          <t>patel_2019</t>
         </is>
       </c>
     </row>
@@ -6007,22 +5987,22 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Peters  (2009)</t>
+          <t>Mizrahi (2014)</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Peters</t>
+          <t>Mizrahi</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Van de Meer(2012)</t>
+          <t>Carney (2017)</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -6032,7 +6012,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>CHR symptoms</t>
+          <t>Positive Symptoms</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -6040,14 +6020,39 @@
           <t>cohort</t>
         </is>
       </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>0.53900000000000003</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>Hedges g</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>-0.249</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>1.326</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>Peters</t>
+          <t>Mizrahi</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
@@ -6057,12 +6062,12 @@
       </c>
       <c r="W57" t="inlineStr">
         <is>
-          <t>peters_2009_chr</t>
+          <t>mizrahi_2014_chr</t>
         </is>
       </c>
       <c r="X57" t="inlineStr">
         <is>
-          <t>peters_2009</t>
+          <t>mizrahi_2014</t>
         </is>
       </c>
       <c r="Y57" t="inlineStr">
@@ -6071,16 +6076,16 @@
         </is>
       </c>
       <c r="Z57">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>patel_2019</t>
+          <t>mizrahi_2014</t>
         </is>
       </c>
     </row>
@@ -6097,17 +6102,17 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Mizrahi (2014)</t>
+          <t>Nieman (2016)</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Mizrahi</t>
+          <t>Nieman</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -6132,7 +6137,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>0.53900000000000003</t>
+          <t>0.46100000000000002</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -6142,27 +6147,27 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>-0.249</t>
+          <t>0.118</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>1.326</t>
+          <t>0.805</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.009</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>Mizrahi</t>
+          <t>Nieman</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
@@ -6172,12 +6177,12 @@
       </c>
       <c r="W58" t="inlineStr">
         <is>
-          <t>mizrahi_2014_chr</t>
+          <t>nieman_2016_chr</t>
         </is>
       </c>
       <c r="X58" t="inlineStr">
         <is>
-          <t>mizrahi_2014</t>
+          <t>nieman_2016</t>
         </is>
       </c>
       <c r="Y58" t="inlineStr">
@@ -6186,7 +6191,7 @@
         </is>
       </c>
       <c r="Z58">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="AA58" t="inlineStr">
         <is>
@@ -6195,7 +6200,7 @@
       </c>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>mizrahi_2014</t>
+          <t>nieman_2016</t>
         </is>
       </c>
     </row>
@@ -6212,17 +6217,17 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Nieman (2016)</t>
+          <t>Van Tricht (2013)</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Nieman</t>
+          <t>Van Tricht</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -6247,7 +6252,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>0.46100000000000002</t>
+          <t>7.2999999999999995E-2</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -6257,27 +6262,27 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>0.118</t>
+          <t>-0.536</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>0.805</t>
+          <t>0.681</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>0.009</t>
+          <t>0.815</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>Nieman</t>
+          <t>VanTricht</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
@@ -6287,12 +6292,12 @@
       </c>
       <c r="W59" t="inlineStr">
         <is>
-          <t>nieman_2016_chr</t>
+          <t>vantricht_2013_chr</t>
         </is>
       </c>
       <c r="X59" t="inlineStr">
         <is>
-          <t>nieman_2016</t>
+          <t>vantricht_2013</t>
         </is>
       </c>
       <c r="Y59" t="inlineStr">
@@ -6301,16 +6306,16 @@
         </is>
       </c>
       <c r="Z59">
-        <v>217</v>
+        <v>316</v>
       </c>
       <c r="AA59" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>nieman_2016</t>
+          <t>vantricht_2014</t>
         </is>
       </c>
     </row>
@@ -6327,32 +6332,32 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Van Tricht (2013)</t>
+          <t>Gill (2015)</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Van Tricht</t>
+          <t>Gill</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Carney (2017)</t>
+          <t>Farris (2019)</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>cannabis use</t>
+          <t>Cannabis use</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Positive Symptoms</t>
+          <t>Negative Symptoms</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -6360,31 +6365,6 @@
           <t>cohort</t>
         </is>
       </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>7.2999999999999995E-2</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>Hedges g</t>
-        </is>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>-0.536</t>
-        </is>
-      </c>
-      <c r="P60" t="inlineStr">
-        <is>
-          <t>0.681</t>
-        </is>
-      </c>
-      <c r="Q60" t="inlineStr">
-        <is>
-          <t>0.815</t>
-        </is>
-      </c>
       <c r="R60" t="inlineStr">
         <is>
           <t>No</t>
@@ -6392,7 +6372,7 @@
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>VanTricht</t>
+          <t>Gill</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
@@ -6402,12 +6382,12 @@
       </c>
       <c r="W60" t="inlineStr">
         <is>
-          <t>vantricht_2013_chr</t>
+          <t>gill_2015_chr</t>
         </is>
       </c>
       <c r="X60" t="inlineStr">
         <is>
-          <t>vantricht_2013</t>
+          <t>gill_2015</t>
         </is>
       </c>
       <c r="Y60" t="inlineStr">
@@ -6416,16 +6396,16 @@
         </is>
       </c>
       <c r="Z60">
-        <v>317</v>
+        <v>119</v>
       </c>
       <c r="AA60" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>vantricht_2014</t>
+          <t>gill_2015</t>
         </is>
       </c>
     </row>
@@ -6442,17 +6422,17 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Gill (2015)</t>
+          <t>Winton-Brown (2014)</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Gill</t>
+          <t>Winton-Brown</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -6482,7 +6462,7 @@
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>Gill</t>
+          <t>Winton-Brown</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
@@ -6492,12 +6472,12 @@
       </c>
       <c r="W61" t="inlineStr">
         <is>
-          <t>gill_2015_chr</t>
+          <t>winton-brown_2014_chr</t>
         </is>
       </c>
       <c r="X61" t="inlineStr">
         <is>
-          <t>gill_2015</t>
+          <t>winton-brown_2014</t>
         </is>
       </c>
       <c r="Y61" t="inlineStr">
@@ -6506,16 +6486,16 @@
         </is>
       </c>
       <c r="Z61">
-        <v>119</v>
+        <v>330</v>
       </c>
       <c r="AA61" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>gill_2015</t>
+          <t>mustonen_2018</t>
         </is>
       </c>
     </row>
@@ -6527,37 +6507,37 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>CHR symptoms</t>
+          <t>CHR state</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Winton-Brown (2014)</t>
+          <t>Addington (2012)</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Winton-Brown</t>
+          <t>Addington</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Farris (2019)</t>
+          <t>Carney (2017)</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Cannabis use</t>
+          <t>current cannabis use</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Negative Symptoms</t>
+          <t>CHR state</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -6565,14 +6545,39 @@
           <t>cohort</t>
         </is>
       </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>1.556</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>OR</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>1.061</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>0.023</t>
+        </is>
+      </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>Winton-Brown</t>
+          <t>Addington</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
@@ -6582,12 +6587,12 @@
       </c>
       <c r="W62" t="inlineStr">
         <is>
-          <t>winton-brown_2014_chr</t>
+          <t>addington_2012_chr</t>
         </is>
       </c>
       <c r="X62" t="inlineStr">
         <is>
-          <t>winton-brown_2014</t>
+          <t>addington_2012</t>
         </is>
       </c>
       <c r="Y62" t="inlineStr">
@@ -6596,7 +6601,7 @@
         </is>
       </c>
       <c r="Z62">
-        <v>331</v>
+        <v>4</v>
       </c>
       <c r="AA62" t="inlineStr">
         <is>
@@ -6605,59 +6610,59 @@
       </c>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>mustonen_2018</t>
+          <t>addington_2017</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>CHR Population</t>
+          <t>Psychosis Population</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>CHR state</t>
+          <t>symptoms</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Addington (2012)</t>
+          <t>Degenhardt (2007)</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Addington</t>
+          <t>Degenhardt</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Carney (2017)</t>
+          <t>Zammit (2008)</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>current cannabis use</t>
+          <t>cannabis use</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>CHR state</t>
+          <t>positive symptoms</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>cohort</t>
+          <t>longitudinal</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>1.556</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -6667,17 +6672,12 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>1.061</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>2.28</t>
-        </is>
-      </c>
-      <c r="Q63" t="inlineStr">
-        <is>
-          <t>0.023</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
@@ -6687,22 +6687,22 @@
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>Addington</t>
+          <t>Degenhardt</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>CHR</t>
+          <t>P</t>
         </is>
       </c>
       <c r="W63" t="inlineStr">
         <is>
-          <t>addington_2012_chr</t>
+          <t>degenhardt_2007_p</t>
         </is>
       </c>
       <c r="X63" t="inlineStr">
         <is>
-          <t>addington_2012</t>
+          <t>degenhardt_2007</t>
         </is>
       </c>
       <c r="Y63" t="inlineStr">
@@ -6711,7 +6711,7 @@
         </is>
       </c>
       <c r="Z63">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="AA63" t="inlineStr">
         <is>
@@ -6720,7 +6720,7 @@
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>addington_2017</t>
+          <t>degenhardt_2001</t>
         </is>
       </c>
     </row>
@@ -6737,17 +6737,17 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Degenhardt (2007)</t>
+          <t>Caspari (1999)</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Degenhardt</t>
+          <t>Caspari</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>1999</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -6770,26 +6770,6 @@
           <t>longitudinal</t>
         </is>
       </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>OR</t>
-        </is>
-      </c>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P64" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
       <c r="R64" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -6797,7 +6777,7 @@
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>Degenhardt</t>
+          <t>Caspari</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
@@ -6807,12 +6787,12 @@
       </c>
       <c r="W64" t="inlineStr">
         <is>
-          <t>degenhardt_2007_p</t>
+          <t>caspari_1999_p</t>
         </is>
       </c>
       <c r="X64" t="inlineStr">
         <is>
-          <t>degenhardt_2007</t>
+          <t>caspari_1999</t>
         </is>
       </c>
       <c r="Y64" t="inlineStr">
@@ -6821,16 +6801,16 @@
         </is>
       </c>
       <c r="Z64">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="AA64" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>degenhardt_2001</t>
+          <t>caspari_1999</t>
         </is>
       </c>
     </row>
@@ -6847,17 +6827,17 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Caspari (1999)</t>
+          <t>Stirling (2005)</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Caspari</t>
+          <t>Stirling</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>1999</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -6882,12 +6862,12 @@
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>Caspari</t>
+          <t>Stirling</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
@@ -6897,12 +6877,12 @@
       </c>
       <c r="W65" t="inlineStr">
         <is>
-          <t>caspari_1999_p</t>
+          <t>stirling_2005_p</t>
         </is>
       </c>
       <c r="X65" t="inlineStr">
         <is>
-          <t>caspari_1999</t>
+          <t>stirling_2005</t>
         </is>
       </c>
       <c r="Y65" t="inlineStr">
@@ -6911,7 +6891,7 @@
         </is>
       </c>
       <c r="Z65">
-        <v>52</v>
+        <v>298</v>
       </c>
       <c r="AA65" t="inlineStr">
         <is>
@@ -6920,7 +6900,7 @@
       </c>
       <c r="AB65" t="inlineStr">
         <is>
-          <t>caspari_1999</t>
+          <t>stirling_2005</t>
         </is>
       </c>
     </row>
@@ -6937,17 +6917,17 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Stirling (2005)</t>
+          <t>Arias Horcajadas (2002)</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Stirling</t>
+          <t>Arias Horcajadas</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -6977,7 +6957,7 @@
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>Stirling</t>
+          <t>AriasHorcajadas</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
@@ -6987,12 +6967,12 @@
       </c>
       <c r="W66" t="inlineStr">
         <is>
-          <t>stirling_2005_p</t>
+          <t>ariashorcajadas_2002_p</t>
         </is>
       </c>
       <c r="X66" t="inlineStr">
         <is>
-          <t>stirling_2005</t>
+          <t>ariashorcajadas_2002</t>
         </is>
       </c>
       <c r="Y66" t="inlineStr">
@@ -7001,7 +6981,7 @@
         </is>
       </c>
       <c r="Z66">
-        <v>299</v>
+        <v>18</v>
       </c>
       <c r="AA66" t="inlineStr">
         <is>
@@ -7010,7 +6990,7 @@
       </c>
       <c r="AB66" t="inlineStr">
         <is>
-          <t>stirling_2005</t>
+          <t>ariashorcajadas_2002</t>
         </is>
       </c>
     </row>
@@ -7027,27 +7007,27 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Arias Horcajadas (2002)</t>
+          <t>Baeza (2009)</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Arias Horcajadas</t>
+          <t>Baeza</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2009</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Zammit (2008)</t>
+          <t>Schoeler(2016)</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>cannabis use</t>
+          <t>continued use vs non-use</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -7060,6 +7040,26 @@
           <t>longitudinal</t>
         </is>
       </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>Cohen's D</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>–1·05</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>0·07</t>
+        </is>
+      </c>
       <c r="R67" t="inlineStr">
         <is>
           <t>No</t>
@@ -7067,7 +7067,7 @@
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>AriasHorcajadas</t>
+          <t>Baeza</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
@@ -7077,12 +7077,12 @@
       </c>
       <c r="W67" t="inlineStr">
         <is>
-          <t>ariashorcajadas_2002_p</t>
+          <t>baeza_2009_p</t>
         </is>
       </c>
       <c r="X67" t="inlineStr">
         <is>
-          <t>ariashorcajadas_2002</t>
+          <t>baeza_2009</t>
         </is>
       </c>
       <c r="Y67" t="inlineStr">
@@ -7091,7 +7091,7 @@
         </is>
       </c>
       <c r="Z67">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="AA67" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
       </c>
       <c r="AB67" t="inlineStr">
         <is>
-          <t>ariashorcajadas_2002</t>
+          <t>baeza_2009</t>
         </is>
       </c>
     </row>
@@ -7117,12 +7117,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Baeza (2009)</t>
+          <t>González-Pinto (2009)</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Baeza</t>
+          <t>González-Pinto</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -7152,7 +7152,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -7162,12 +7162,12 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>–1·05</t>
+          <t>–0·18</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>0·07</t>
+          <t>0·83</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
@@ -7177,7 +7177,7 @@
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>Baeza</t>
+          <t>González-Pinto</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
@@ -7187,12 +7187,12 @@
       </c>
       <c r="W68" t="inlineStr">
         <is>
-          <t>baeza_2009_p</t>
+          <t>gonzález-pinto_2009_p</t>
         </is>
       </c>
       <c r="X68" t="inlineStr">
         <is>
-          <t>baeza_2009</t>
+          <t>gonzález-pinto_2009</t>
         </is>
       </c>
       <c r="Y68" t="inlineStr">
@@ -7201,7 +7201,7 @@
         </is>
       </c>
       <c r="Z68">
-        <v>25</v>
+        <v>122</v>
       </c>
       <c r="AA68" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
       </c>
       <c r="AB68" t="inlineStr">
         <is>
-          <t>baeza_2009</t>
+          <t>gonzález-pinto_2009</t>
         </is>
       </c>
     </row>
@@ -7227,17 +7227,17 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>González-Pinto (2009)</t>
+          <t>Faridi (2012)</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>González-Pinto</t>
+          <t>Faridi</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -7262,22 +7262,22 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Cohen's D</t>
+          <t>OR</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>–0·18</t>
+          <t>–0·48</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>0·83</t>
+          <t>0·66</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
@@ -7287,7 +7287,7 @@
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>González-Pinto</t>
+          <t>Faridi</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
@@ -7297,12 +7297,12 @@
       </c>
       <c r="W69" t="inlineStr">
         <is>
-          <t>gonzález-pinto_2009_p</t>
+          <t>faridi_2012_p</t>
         </is>
       </c>
       <c r="X69" t="inlineStr">
         <is>
-          <t>gonzález-pinto_2009</t>
+          <t>faridi_2012</t>
         </is>
       </c>
       <c r="Y69" t="inlineStr">
@@ -7311,7 +7311,7 @@
         </is>
       </c>
       <c r="Z69">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="AA69" t="inlineStr">
         <is>
@@ -7320,7 +7320,7 @@
       </c>
       <c r="AB69" t="inlineStr">
         <is>
-          <t>gonzález-pinto_2009</t>
+          <t>faridi_2012</t>
         </is>
       </c>
     </row>
@@ -7337,17 +7337,17 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Faridi (2012)</t>
+          <t>Barrowclough (2013)</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Faridi</t>
+          <t>Barrowclough</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -7372,22 +7372,22 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>OR</t>
+          <t>Cohen's D</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>–0·48</t>
+          <t>–0·16</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>0·66</t>
+          <t>0·27</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
@@ -7397,7 +7397,7 @@
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>Faridi</t>
+          <t>Barrowclough</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
@@ -7407,12 +7407,12 @@
       </c>
       <c r="W70" t="inlineStr">
         <is>
-          <t>faridi_2012_p</t>
+          <t>barrowclough_2013_p</t>
         </is>
       </c>
       <c r="X70" t="inlineStr">
         <is>
-          <t>faridi_2012</t>
+          <t>barrowclough_2013</t>
         </is>
       </c>
       <c r="Y70" t="inlineStr">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="Z70">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="AA70" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
       </c>
       <c r="AB70" t="inlineStr">
         <is>
-          <t>faridi_2012</t>
+          <t>barrowclough_2013</t>
         </is>
       </c>
     </row>
@@ -7447,17 +7447,17 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Barrowclough (2013)</t>
+          <t>Linszen et al (1994)6</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Barrowclough</t>
+          <t>Linszen</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>1994</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -7467,12 +7467,12 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>continued use vs non-use</t>
+          <t>continued vs non use</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>positive symptoms</t>
+          <t>negative symptoms</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -7482,7 +7482,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-7.0000000000000007E-2</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -7492,12 +7492,12 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>–0·16</t>
+          <t>0·25</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>0·27</t>
+          <t>–0·21</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
@@ -7507,7 +7507,7 @@
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>Barrowclough</t>
+          <t>Linszen</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
@@ -7517,12 +7517,12 @@
       </c>
       <c r="W71" t="inlineStr">
         <is>
-          <t>barrowclough_2013_p</t>
+          <t>linszen_1994_p</t>
         </is>
       </c>
       <c r="X71" t="inlineStr">
         <is>
-          <t>barrowclough_2013</t>
+          <t>linszen_1994</t>
         </is>
       </c>
       <c r="Y71" t="inlineStr">
@@ -7531,7 +7531,7 @@
         </is>
       </c>
       <c r="Z71">
-        <v>30</v>
+        <v>180</v>
       </c>
       <c r="AA71" t="inlineStr">
         <is>
@@ -7540,7 +7540,7 @@
       </c>
       <c r="AB71" t="inlineStr">
         <is>
-          <t>barrowclough_2013</t>
+          <t>linszen_1994</t>
         </is>
       </c>
     </row>
@@ -7557,17 +7557,17 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Linszen et al (1994)6</t>
+          <t>Bersani et al (2002)</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Linszen</t>
+          <t>Bersani</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>1994</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -7592,7 +7592,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>-7.0000000000000007E-2</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -7602,12 +7602,12 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>0·25</t>
+          <t>–0·35</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>–0·21</t>
+          <t>–0·70</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
@@ -7617,7 +7617,7 @@
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>Linszen</t>
+          <t>Bersani</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
@@ -7627,12 +7627,12 @@
       </c>
       <c r="W72" t="inlineStr">
         <is>
-          <t>linszen_1994_p</t>
+          <t>bersani_2002_p</t>
         </is>
       </c>
       <c r="X72" t="inlineStr">
         <is>
-          <t>linszen_1994</t>
+          <t>bersani_2002</t>
         </is>
       </c>
       <c r="Y72" t="inlineStr">
@@ -7641,7 +7641,7 @@
         </is>
       </c>
       <c r="Z72">
-        <v>181</v>
+        <v>37</v>
       </c>
       <c r="AA72" t="inlineStr">
         <is>
@@ -7650,7 +7650,7 @@
       </c>
       <c r="AB72" t="inlineStr">
         <is>
-          <t>linszen_1994</t>
+          <t>bersani_2002</t>
         </is>
       </c>
     </row>
@@ -7667,27 +7667,27 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Bersani et al (2002)</t>
+          <t>Van Dijk (2012)</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Bersani</t>
+          <t>Van Dijk</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Schoeler(2016)</t>
+          <t>Sabe (2020)</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>continued vs non use</t>
+          <t>current cannabis users</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -7697,27 +7697,27 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>longitudinal</t>
+          <t>cross-sectional and longitudinal</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>7.0000000000000007E-2</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>Cohen's D</t>
+          <t>Std. Mean Difference</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>–0·35</t>
+          <t>-0.25</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>–0·70</t>
+          <t>-0.4</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
@@ -7727,7 +7727,7 @@
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>Bersani</t>
+          <t>VanDijk</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
@@ -7737,21 +7737,21 @@
       </c>
       <c r="W73" t="inlineStr">
         <is>
-          <t>bersani_2002_p</t>
+          <t>vandijk_2012_p</t>
         </is>
       </c>
       <c r="X73" t="inlineStr">
         <is>
-          <t>bersani_2002</t>
+          <t>vandijk_2012</t>
         </is>
       </c>
       <c r="Y73" t="inlineStr">
         <is>
-          <t>maybe</t>
+          <t>no</t>
         </is>
       </c>
       <c r="Z73">
-        <v>37</v>
+        <v>310</v>
       </c>
       <c r="AA73" t="inlineStr">
         <is>
@@ -7760,7 +7760,7 @@
       </c>
       <c r="AB73" t="inlineStr">
         <is>
-          <t>bersani_2002</t>
+          <t>vandijk_2012</t>
         </is>
       </c>
     </row>
@@ -7772,72 +7772,72 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>symptoms</t>
+          <t>relapse</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Van Dijk (2012)</t>
+          <t>Hides (2006)</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Van Dijk</t>
+          <t>Hides</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2006</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Sabe (2020)</t>
+          <t>Zammit (2008)</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>current cannabis users</t>
+          <t>cannabis use</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>negative symptoms</t>
+          <t>Relapse</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>cross-sectional and longitudinal</t>
+          <t>longitudinal</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>7.0000000000000007E-2</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>Std. Mean Difference</t>
+          <t>Hazard Ratio</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>-0.25</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>-0.4</t>
+          <t>1.1000000000000001</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>VanDijk</t>
+          <t>Hides</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
@@ -7847,21 +7847,21 @@
       </c>
       <c r="W74" t="inlineStr">
         <is>
-          <t>vandijk_2012_p</t>
+          <t>hides_2006_p</t>
         </is>
       </c>
       <c r="X74" t="inlineStr">
         <is>
-          <t>vandijk_2012</t>
+          <t>hides_2006</t>
         </is>
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>maybe</t>
         </is>
       </c>
       <c r="Z74">
-        <v>311</v>
+        <v>142</v>
       </c>
       <c r="AA74" t="inlineStr">
         <is>
@@ -7870,7 +7870,7 @@
       </c>
       <c r="AB74" t="inlineStr">
         <is>
-          <t>vandijk_2012</t>
+          <t>hides_2006</t>
         </is>
       </c>
     </row>
@@ -7887,12 +7887,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Hides (2006)</t>
+          <t>Wade (2006)</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Hides</t>
+          <t>Wade</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -7922,22 +7922,27 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>Hazard Ratio</t>
+          <t>OR</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>2.2000000000000002</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>1.1000000000000001</t>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>&lt;0.001</t>
         </is>
       </c>
       <c r="R75" t="inlineStr">
@@ -7947,7 +7952,7 @@
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>Hides</t>
+          <t>Wade</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
@@ -7957,12 +7962,12 @@
       </c>
       <c r="W75" t="inlineStr">
         <is>
-          <t>hides_2006_p</t>
+          <t>wade_2006_p</t>
         </is>
       </c>
       <c r="X75" t="inlineStr">
         <is>
-          <t>hides_2006</t>
+          <t>wade_2006</t>
         </is>
       </c>
       <c r="Y75" t="inlineStr">
@@ -7971,7 +7976,7 @@
         </is>
       </c>
       <c r="Z75">
-        <v>142</v>
+        <v>325</v>
       </c>
       <c r="AA75" t="inlineStr">
         <is>
@@ -7980,7 +7985,7 @@
       </c>
       <c r="AB75" t="inlineStr">
         <is>
-          <t>hides_2006</t>
+          <t>wade_2006</t>
         </is>
       </c>
     </row>
@@ -7997,17 +8002,17 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Wade (2006)</t>
+          <t>Martinez-Arevalo (1994)</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Wade</t>
+          <t>Martínez Arévalo</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>1994</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -8032,7 +8037,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -8042,17 +8047,17 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2.2000000000000002</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>21.2</t>
         </is>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>&lt;0.001</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
@@ -8062,7 +8067,7 @@
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>Wade</t>
+          <t>MartínezArévalo</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
@@ -8072,12 +8077,12 @@
       </c>
       <c r="W76" t="inlineStr">
         <is>
-          <t>wade_2006_p</t>
+          <t>martínezarévalo_1994_p</t>
         </is>
       </c>
       <c r="X76" t="inlineStr">
         <is>
-          <t>wade_2006</t>
+          <t>martínezarévalo_1994</t>
         </is>
       </c>
       <c r="Y76" t="inlineStr">
@@ -8086,7 +8091,7 @@
         </is>
       </c>
       <c r="Z76">
-        <v>326</v>
+        <v>193</v>
       </c>
       <c r="AA76" t="inlineStr">
         <is>
@@ -8095,7 +8100,7 @@
       </c>
       <c r="AB76" t="inlineStr">
         <is>
-          <t>wade_2006</t>
+          <t>martínezarévalo_1994</t>
         </is>
       </c>
     </row>
@@ -8112,27 +8117,27 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Martinez-Arevalo (1994)</t>
+          <t>Negrete (1986)</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Martínez Arévalo</t>
+          <t>Negrete</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>1994</t>
+          <t>1986</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Zammit (2008)</t>
+          <t>Schoeler (2016)</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>cannabis use</t>
+          <t>continued vs non-use</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -8147,27 +8152,22 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>OR</t>
+          <t>Cohen's D</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>21.2</t>
-        </is>
-      </c>
-      <c r="Q77" t="inlineStr">
-        <is>
-          <t>0.01</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
@@ -8177,7 +8177,7 @@
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>MartínezArévalo</t>
+          <t>Negrete</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
@@ -8187,12 +8187,12 @@
       </c>
       <c r="W77" t="inlineStr">
         <is>
-          <t>martínezarévalo_1994_p</t>
+          <t>negrete_1986_p</t>
         </is>
       </c>
       <c r="X77" t="inlineStr">
         <is>
-          <t>martínezarévalo_1994</t>
+          <t>negrete_1986</t>
         </is>
       </c>
       <c r="Y77" t="inlineStr">
@@ -8201,7 +8201,7 @@
         </is>
       </c>
       <c r="Z77">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="AA77" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
       </c>
       <c r="AB77" t="inlineStr">
         <is>
-          <t>martínezarévalo_1994</t>
+          <t>negrete_1986</t>
         </is>
       </c>
     </row>
@@ -8227,17 +8227,17 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Negrete (1986)</t>
+          <t>Sorbaca (2003)</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Negrete</t>
+          <t>Sorbara</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>1986</t>
+          <t>2003</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -8262,22 +8262,22 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>3.1</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>Cohen's D</t>
+          <t>OR</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0·02</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>1·22</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
@@ -8287,7 +8287,7 @@
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>Negrete</t>
+          <t>Sorbara</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
@@ -8297,12 +8297,12 @@
       </c>
       <c r="W78" t="inlineStr">
         <is>
-          <t>negrete_1986_p</t>
+          <t>sorbara_2003_p</t>
         </is>
       </c>
       <c r="X78" t="inlineStr">
         <is>
-          <t>negrete_1986</t>
+          <t>sorbara_2003</t>
         </is>
       </c>
       <c r="Y78" t="inlineStr">
@@ -8311,7 +8311,7 @@
         </is>
       </c>
       <c r="Z78">
-        <v>214</v>
+        <v>293</v>
       </c>
       <c r="AA78" t="inlineStr">
         <is>
@@ -8320,7 +8320,7 @@
       </c>
       <c r="AB78" t="inlineStr">
         <is>
-          <t>negrete_1986</t>
+          <t>sorbara_2003</t>
         </is>
       </c>
     </row>
@@ -8337,17 +8337,17 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Sorbaca (2003)</t>
+          <t>San (2013)</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Sorbara</t>
+          <t>San</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2003</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -8372,22 +8372,22 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>OR</t>
+          <t>Cohen's D</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>0·02</t>
+          <t>0·13</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>1·22</t>
+          <t>0·36</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
@@ -8397,7 +8397,7 @@
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>Sorbara</t>
+          <t>San</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
@@ -8407,12 +8407,12 @@
       </c>
       <c r="W79" t="inlineStr">
         <is>
-          <t>sorbara_2003_p</t>
+          <t>san_2013_p</t>
         </is>
       </c>
       <c r="X79" t="inlineStr">
         <is>
-          <t>sorbara_2003</t>
+          <t>san_2013</t>
         </is>
       </c>
       <c r="Y79" t="inlineStr">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="Z79">
-        <v>294</v>
+        <v>261</v>
       </c>
       <c r="AA79" t="inlineStr">
         <is>
@@ -8430,7 +8430,7 @@
       </c>
       <c r="AB79" t="inlineStr">
         <is>
-          <t>sorbara_2003</t>
+          <t>san_2013</t>
         </is>
       </c>
     </row>
@@ -8447,17 +8447,17 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>San (2013)</t>
+          <t>van der Meer and Velthorst (2015)</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>San</t>
+          <t>Van der Meer</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -8482,7 +8482,7 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
@@ -8492,12 +8492,12 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>0·13</t>
+          <t>0·03</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>0·36</t>
+          <t>0·43</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
@@ -8507,7 +8507,7 @@
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>San</t>
+          <t>VanderMeer</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
@@ -8517,12 +8517,12 @@
       </c>
       <c r="W80" t="inlineStr">
         <is>
-          <t>san_2013_p</t>
+          <t>vandermeer_2015_p</t>
         </is>
       </c>
       <c r="X80" t="inlineStr">
         <is>
-          <t>san_2013</t>
+          <t>vandermeer_2015</t>
         </is>
       </c>
       <c r="Y80" t="inlineStr">
@@ -8531,7 +8531,7 @@
         </is>
       </c>
       <c r="Z80">
-        <v>262</v>
+        <v>309</v>
       </c>
       <c r="AA80" t="inlineStr">
         <is>
@@ -8540,7 +8540,7 @@
       </c>
       <c r="AB80" t="inlineStr">
         <is>
-          <t>san_2013</t>
+          <t>vandermeer_2015</t>
         </is>
       </c>
     </row>
@@ -8552,37 +8552,37 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>relapse</t>
+          <t>any psychosis outcome</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>van der Meer and Velthorst (2015)</t>
+          <t>Addington (2007)</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Van der Meer</t>
+          <t>Addington</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Schoeler (2016)</t>
+          <t>Athanassiou (2021)</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>continued vs non-use</t>
+          <t>cannabis use</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Relapse</t>
+          <t>any psychosis outcome</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -8592,7 +8592,7 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
@@ -8600,24 +8600,9 @@
           <t>Cohen's D</t>
         </is>
       </c>
-      <c r="O81" t="inlineStr">
-        <is>
-          <t>0·03</t>
-        </is>
-      </c>
-      <c r="P81" t="inlineStr">
-        <is>
-          <t>0·43</t>
-        </is>
-      </c>
-      <c r="R81" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>VanderMeer</t>
+          <t>Addington</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
@@ -8627,12 +8612,12 @@
       </c>
       <c r="W81" t="inlineStr">
         <is>
-          <t>vandermeer_2015_p</t>
+          <t>addington_2007_p</t>
         </is>
       </c>
       <c r="X81" t="inlineStr">
         <is>
-          <t>vandermeer_2015</t>
+          <t>addington_2007</t>
         </is>
       </c>
       <c r="Y81" t="inlineStr">
@@ -8641,7 +8626,7 @@
         </is>
       </c>
       <c r="Z81">
-        <v>310</v>
+        <v>3</v>
       </c>
       <c r="AA81" t="inlineStr">
         <is>
@@ -8650,7 +8635,7 @@
       </c>
       <c r="AB81" t="inlineStr">
         <is>
-          <t>vandermeer_2015</t>
+          <t>addington_2007</t>
         </is>
       </c>
     </row>
@@ -8667,17 +8652,17 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Addington (2007)</t>
+          <t>Barrowclough (2015)</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Addington</t>
+          <t>Barrowclough</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -8702,17 +8687,17 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>Cohen's D</t>
+          <t>B estimate</t>
         </is>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>Addington</t>
+          <t>Barrowclough</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
@@ -8722,12 +8707,12 @@
       </c>
       <c r="W82" t="inlineStr">
         <is>
-          <t>addington_2007_p</t>
+          <t>barrowclough_2015_p</t>
         </is>
       </c>
       <c r="X82" t="inlineStr">
         <is>
-          <t>addington_2007</t>
+          <t>barrowclough_2015</t>
         </is>
       </c>
       <c r="Y82" t="inlineStr">
@@ -8736,7 +8721,7 @@
         </is>
       </c>
       <c r="Z82">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="AA82" t="inlineStr">
         <is>
@@ -8745,7 +8730,7 @@
       </c>
       <c r="AB82" t="inlineStr">
         <is>
-          <t>addington_2007</t>
+          <t>barrowclough_2015</t>
         </is>
       </c>
     </row>
@@ -8762,17 +8747,17 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Barrowclough (2015)</t>
+          <t>Bergé (2016)</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Barrowclough</t>
+          <t>Bergé</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -8797,7 +8782,7 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.28000000000000003</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
@@ -8807,7 +8792,7 @@
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>Barrowclough</t>
+          <t>Bergé</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
@@ -8817,12 +8802,12 @@
       </c>
       <c r="W83" t="inlineStr">
         <is>
-          <t>barrowclough_2015_p</t>
+          <t>bergé_2016_p</t>
         </is>
       </c>
       <c r="X83" t="inlineStr">
         <is>
-          <t>barrowclough_2015</t>
+          <t>bergé_2016</t>
         </is>
       </c>
       <c r="Y83" t="inlineStr">
@@ -8831,7 +8816,7 @@
         </is>
       </c>
       <c r="Z83">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="AA83" t="inlineStr">
         <is>
@@ -8840,7 +8825,7 @@
       </c>
       <c r="AB83" t="inlineStr">
         <is>
-          <t>barrowclough_2015</t>
+          <t>bergé_2016</t>
         </is>
       </c>
     </row>
@@ -8857,17 +8842,17 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Bergé (2016)</t>
+          <t>Clausen (2014)</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Bergé</t>
+          <t>Clausen</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -8892,17 +8877,17 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>0.28000000000000003</t>
+          <t>0.57999999999999996</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>B estimate</t>
+          <t>Cohen's D</t>
         </is>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>Bergé</t>
+          <t>Clausen</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
@@ -8912,12 +8897,12 @@
       </c>
       <c r="W84" t="inlineStr">
         <is>
-          <t>bergé_2016_p</t>
+          <t>clausen_2014_p</t>
         </is>
       </c>
       <c r="X84" t="inlineStr">
         <is>
-          <t>bergé_2016</t>
+          <t>clausen_2014</t>
         </is>
       </c>
       <c r="Y84" t="inlineStr">
@@ -8926,7 +8911,7 @@
         </is>
       </c>
       <c r="Z84">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="AA84" t="inlineStr">
         <is>
@@ -8935,7 +8920,7 @@
       </c>
       <c r="AB84" t="inlineStr">
         <is>
-          <t>bergé_2016</t>
+          <t>clausen_2014</t>
         </is>
       </c>
     </row>
@@ -8952,17 +8937,17 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Clausen (2014)</t>
+          <t>Colizzi (2016)</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Clausen</t>
+          <t>Colizzi</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -8987,17 +8972,17 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>0.57999999999999996</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>Cohen's D</t>
+          <t>OR</t>
         </is>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>Clausen</t>
+          <t>Colizzi</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
@@ -9007,12 +8992,12 @@
       </c>
       <c r="W85" t="inlineStr">
         <is>
-          <t>clausen_2014_p</t>
+          <t>colizzi_2016_p</t>
         </is>
       </c>
       <c r="X85" t="inlineStr">
         <is>
-          <t>clausen_2014</t>
+          <t>colizzi_2016</t>
         </is>
       </c>
       <c r="Y85" t="inlineStr">
@@ -9021,7 +9006,7 @@
         </is>
       </c>
       <c r="Z85">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="AA85" t="inlineStr">
         <is>
@@ -9030,7 +9015,7 @@
       </c>
       <c r="AB85" t="inlineStr">
         <is>
-          <t>clausen_2014</t>
+          <t>colizzi_2016</t>
         </is>
       </c>
     </row>
@@ -9047,17 +9032,17 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Colizzi (2016)</t>
+          <t>Emsley (2019)</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Colizzi</t>
+          <t>Emsley</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -9082,7 +9067,7 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
@@ -9092,7 +9077,7 @@
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>Colizzi</t>
+          <t>Emsley</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
@@ -9102,12 +9087,12 @@
       </c>
       <c r="W86" t="inlineStr">
         <is>
-          <t>colizzi_2016_p</t>
+          <t>emsley_2019_p</t>
         </is>
       </c>
       <c r="X86" t="inlineStr">
         <is>
-          <t>colizzi_2016</t>
+          <t>emsley_2020</t>
         </is>
       </c>
       <c r="Y86" t="inlineStr">
@@ -9116,7 +9101,7 @@
         </is>
       </c>
       <c r="Z86">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="AA86" t="inlineStr">
         <is>
@@ -9125,7 +9110,7 @@
       </c>
       <c r="AB86" t="inlineStr">
         <is>
-          <t>colizzi_2016</t>
+          <t>emsley_2020</t>
         </is>
       </c>
     </row>
@@ -9142,12 +9127,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Emsley (2019)</t>
+          <t>Fond (2019)</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Emsley</t>
+          <t>Fond</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -9177,17 +9162,17 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>OR</t>
+          <t>φ</t>
         </is>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>Emsley</t>
+          <t>Fond</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
@@ -9197,12 +9182,12 @@
       </c>
       <c r="W87" t="inlineStr">
         <is>
-          <t>emsley_2019_p</t>
+          <t>fond_2019_p</t>
         </is>
       </c>
       <c r="X87" t="inlineStr">
         <is>
-          <t>emsley_2020</t>
+          <t>fond_2019</t>
         </is>
       </c>
       <c r="Y87" t="inlineStr">
@@ -9211,7 +9196,7 @@
         </is>
       </c>
       <c r="Z87">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="AA87" t="inlineStr">
         <is>
@@ -9220,7 +9205,7 @@
       </c>
       <c r="AB87" t="inlineStr">
         <is>
-          <t>emsley_2020</t>
+          <t>fond_2019</t>
         </is>
       </c>
     </row>
@@ -9237,17 +9222,17 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Fond (2019)</t>
+          <t>Foti (2010)</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Fond</t>
+          <t>Foti</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2010</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -9272,17 +9257,17 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>φ</t>
+          <t>Tetrachoric coefficient</t>
         </is>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>Fond</t>
+          <t>Foti</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
@@ -9292,12 +9277,12 @@
       </c>
       <c r="W88" t="inlineStr">
         <is>
-          <t>fond_2019_p</t>
+          <t>foti_2010_p</t>
         </is>
       </c>
       <c r="X88" t="inlineStr">
         <is>
-          <t>fond_2019</t>
+          <t>foti_2010</t>
         </is>
       </c>
       <c r="Y88" t="inlineStr">
@@ -9306,7 +9291,7 @@
         </is>
       </c>
       <c r="Z88">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AA88" t="inlineStr">
         <is>
@@ -9315,7 +9300,7 @@
       </c>
       <c r="AB88" t="inlineStr">
         <is>
-          <t>fond_2019</t>
+          <t>foti_2010</t>
         </is>
       </c>
     </row>
@@ -9332,17 +9317,17 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Foti (2010)</t>
+          <t>Grech (2005)</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Foti</t>
+          <t>Grech</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -9367,17 +9352,17 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>Tetrachoric coefficient</t>
+          <t>OR</t>
         </is>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>Foti</t>
+          <t>Grech</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
@@ -9387,12 +9372,12 @@
       </c>
       <c r="W89" t="inlineStr">
         <is>
-          <t>foti_2010_p</t>
+          <t>grech_2005_p</t>
         </is>
       </c>
       <c r="X89" t="inlineStr">
         <is>
-          <t>foti_2010</t>
+          <t>grech_2005</t>
         </is>
       </c>
       <c r="Y89" t="inlineStr">
@@ -9401,7 +9386,7 @@
         </is>
       </c>
       <c r="Z89">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="AA89" t="inlineStr">
         <is>
@@ -9410,7 +9395,7 @@
       </c>
       <c r="AB89" t="inlineStr">
         <is>
-          <t>foti_2010</t>
+          <t>grech_2005</t>
         </is>
       </c>
     </row>
@@ -9427,17 +9412,17 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Grech (2005)</t>
+          <t>Hadden (2016)</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Grech</t>
+          <t>Hadden</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -9462,17 +9447,17 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>-0.1</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>OR</t>
+          <t>B estimate</t>
         </is>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>Grech</t>
+          <t>Hadden</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
@@ -9482,12 +9467,12 @@
       </c>
       <c r="W90" t="inlineStr">
         <is>
-          <t>grech_2005_p</t>
+          <t>hadden_2016_p</t>
         </is>
       </c>
       <c r="X90" t="inlineStr">
         <is>
-          <t>grech_2005</t>
+          <t>hadden_2018</t>
         </is>
       </c>
       <c r="Y90" t="inlineStr">
@@ -9496,16 +9481,16 @@
         </is>
       </c>
       <c r="Z90">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="AA90" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AB90" t="inlineStr">
         <is>
-          <t>grech_2005</t>
+          <t>hadden_2026</t>
         </is>
       </c>
     </row>
@@ -9522,17 +9507,17 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Hadden (2016)</t>
+          <t>Oullette-Plamondon (2017)</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Hadden</t>
+          <t>Ouellet-Plamondon</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -9557,17 +9542,17 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>-0.1</t>
+          <t>0.9</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>B estimate</t>
+          <t>Cohen's D</t>
         </is>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>Hadden</t>
+          <t>Ouellet-Plamondon</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
@@ -9577,12 +9562,12 @@
       </c>
       <c r="W91" t="inlineStr">
         <is>
-          <t>hadden_2016_p</t>
+          <t>ouellet-plamondon_2017_p</t>
         </is>
       </c>
       <c r="X91" t="inlineStr">
         <is>
-          <t>hadden_2018</t>
+          <t>ouellet-plamondon_2017</t>
         </is>
       </c>
       <c r="Y91" t="inlineStr">
@@ -9591,16 +9576,16 @@
         </is>
       </c>
       <c r="Z91">
-        <v>133</v>
+        <v>223</v>
       </c>
       <c r="AA91" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="AB91" t="inlineStr">
         <is>
-          <t>hadden_2026</t>
+          <t>ouellet-plamondon_2017</t>
         </is>
       </c>
     </row>
@@ -9617,17 +9602,17 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Oullette-Plamondon (2017)</t>
+          <t>Schimmelmann (2011)</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Ouellett-Plamondon</t>
+          <t>Schimmelmann</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -9652,17 +9637,17 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>0.9</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>Cohen's D</t>
+          <t>V</t>
         </is>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>Ouellett-Plamondon</t>
+          <t>Schimmelmann</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
@@ -9672,12 +9657,12 @@
       </c>
       <c r="W92" t="inlineStr">
         <is>
-          <t>ouellett-plamondon_2017_p</t>
+          <t>schimmelmann_2011_p</t>
         </is>
       </c>
       <c r="X92" t="inlineStr">
         <is>
-          <t>ouellett-plamondon_2017</t>
+          <t>schimmelmann_2012</t>
         </is>
       </c>
       <c r="Y92" t="inlineStr">
@@ -9686,16 +9671,16 @@
         </is>
       </c>
       <c r="Z92">
-        <v>224</v>
+        <v>268</v>
       </c>
       <c r="AA92" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="AB92" t="inlineStr">
         <is>
-          <t>ouellet-plamondon_2017</t>
+          <t>schimmelmann_2012</t>
         </is>
       </c>
     </row>
@@ -9712,17 +9697,17 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Schimmelmann (2011)</t>
+          <t>Seddon (2016)</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Schimmelmann</t>
+          <t>Seddon</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -9747,17 +9732,17 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>B estimate</t>
         </is>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>Schimmelmann</t>
+          <t>Seddon</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
@@ -9767,12 +9752,12 @@
       </c>
       <c r="W93" t="inlineStr">
         <is>
-          <t>schimmelmann_2011_p</t>
+          <t>seddon_2016_p</t>
         </is>
       </c>
       <c r="X93" t="inlineStr">
         <is>
-          <t>schimmelmann_2012</t>
+          <t>seddon_2016</t>
         </is>
       </c>
       <c r="Y93" t="inlineStr">
@@ -9781,16 +9766,16 @@
         </is>
       </c>
       <c r="Z93">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="AA93" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AB93" t="inlineStr">
         <is>
-          <t>schimmelmann_2012</t>
+          <t>seddon_2015</t>
         </is>
       </c>
     </row>
@@ -9807,17 +9792,17 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Seddon (2016)</t>
+          <t>Setien-Suero (2019)</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Seddon</t>
+          <t>Setién-Suero</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -9842,17 +9827,17 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>B estimate</t>
+          <t>Cohen's D</t>
         </is>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>Seddon</t>
+          <t>Setién-Suero</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
@@ -9862,12 +9847,12 @@
       </c>
       <c r="W94" t="inlineStr">
         <is>
-          <t>seddon_2016_p</t>
+          <t>setién-suero_2019_p</t>
         </is>
       </c>
       <c r="X94" t="inlineStr">
         <is>
-          <t>seddon_2016</t>
+          <t>setién-suero_2019</t>
         </is>
       </c>
       <c r="Y94" t="inlineStr">
@@ -9876,16 +9861,16 @@
         </is>
       </c>
       <c r="Z94">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AA94" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="AB94" t="inlineStr">
         <is>
-          <t>seddon_2015</t>
+          <t>setién-suero_2019</t>
         </is>
       </c>
     </row>
@@ -9902,17 +9887,17 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Setien-Suero (2019)</t>
+          <t>Stone (2014)</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Setién-Suero</t>
+          <t>Stone</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -9937,7 +9922,7 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.56000000000000005</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
@@ -9947,7 +9932,7 @@
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>Setién-Suero</t>
+          <t>Stone</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
@@ -9957,12 +9942,12 @@
       </c>
       <c r="W95" t="inlineStr">
         <is>
-          <t>setién-suero_2019_p</t>
+          <t>stone_2014_p</t>
         </is>
       </c>
       <c r="X95" t="inlineStr">
         <is>
-          <t>setién-suero_2019</t>
+          <t>stone_2014</t>
         </is>
       </c>
       <c r="Y95" t="inlineStr">
@@ -9971,7 +9956,7 @@
         </is>
       </c>
       <c r="Z95">
-        <v>280</v>
+        <v>301</v>
       </c>
       <c r="AA95" t="inlineStr">
         <is>
@@ -9980,7 +9965,7 @@
       </c>
       <c r="AB95" t="inlineStr">
         <is>
-          <t>setién-suero_2019</t>
+          <t>stone_2014</t>
         </is>
       </c>
     </row>
@@ -9997,17 +9982,17 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Stone (2014)</t>
+          <t>Bhattacharrya (2020)</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Stone</t>
+          <t>Bhattacharrya</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -10032,17 +10017,17 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>0.56000000000000005</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>Cohen's D</t>
+          <t>OR</t>
         </is>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>Stone</t>
+          <t>Bhattacharrya</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
@@ -10052,12 +10037,12 @@
       </c>
       <c r="W96" t="inlineStr">
         <is>
-          <t>stone_2014_p</t>
+          <t>bhattacharrya_2020_p</t>
         </is>
       </c>
       <c r="X96" t="inlineStr">
         <is>
-          <t>stone_2014</t>
+          <t>bhattacharrya_2020</t>
         </is>
       </c>
       <c r="Y96" t="inlineStr">
@@ -10066,16 +10051,16 @@
         </is>
       </c>
       <c r="Z96">
-        <v>302</v>
+        <v>38</v>
       </c>
       <c r="AA96" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AB96" t="inlineStr">
         <is>
-          <t>stone_2014</t>
+          <t>harley_2010</t>
         </is>
       </c>
     </row>
@@ -10092,12 +10077,12 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Bhattacharrya (2020)</t>
+          <t>Marino (2020)</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Bhattacharrya</t>
+          <t>Marino</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -10127,17 +10112,17 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>OR</t>
+          <t>LO</t>
         </is>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>Bhattacharrya</t>
+          <t>Marino</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
@@ -10147,12 +10132,12 @@
       </c>
       <c r="W97" t="inlineStr">
         <is>
-          <t>bhattacharrya_2020_p</t>
+          <t>marino_2020_p</t>
         </is>
       </c>
       <c r="X97" t="inlineStr">
         <is>
-          <t>bhattacharrya_2020</t>
+          <t>marino_2020</t>
         </is>
       </c>
       <c r="Y97" t="inlineStr">
@@ -10161,16 +10146,16 @@
         </is>
       </c>
       <c r="Z97">
-        <v>38</v>
+        <v>190</v>
       </c>
       <c r="AA97" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="AB97" t="inlineStr">
         <is>
-          <t>harley_2010</t>
+          <t>marino_2020</t>
         </is>
       </c>
     </row>
@@ -10187,12 +10172,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Marino (2020)</t>
+          <t>Rentero (2020)</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Marino</t>
+          <t>Rentero</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -10222,17 +10207,17 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>LO</t>
+          <t>φ</t>
         </is>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>Marino</t>
+          <t>Rentero</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
@@ -10242,12 +10227,12 @@
       </c>
       <c r="W98" t="inlineStr">
         <is>
-          <t>marino_2020_p</t>
+          <t>rentero_2020_p</t>
         </is>
       </c>
       <c r="X98" t="inlineStr">
         <is>
-          <t>marino_2020</t>
+          <t>rentero_2020</t>
         </is>
       </c>
       <c r="Y98" t="inlineStr">
@@ -10256,7 +10241,7 @@
         </is>
       </c>
       <c r="Z98">
-        <v>191</v>
+        <v>245</v>
       </c>
       <c r="AA98" t="inlineStr">
         <is>
@@ -10265,7 +10250,7 @@
       </c>
       <c r="AB98" t="inlineStr">
         <is>
-          <t>marino_2020</t>
+          <t>rentero_2020</t>
         </is>
       </c>
     </row>
@@ -10282,17 +10267,17 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Rentero (2020)</t>
+          <t>Rømer Thomsen (2018)</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Rentero</t>
+          <t>Rømer Thomsen</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -10317,17 +10302,17 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>φ</t>
+          <t>RR</t>
         </is>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>Rentero</t>
+          <t>RømerThomsen</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
@@ -10337,12 +10322,12 @@
       </c>
       <c r="W99" t="inlineStr">
         <is>
-          <t>rentero_2020_p</t>
+          <t>rømerthomsen_2018_p</t>
         </is>
       </c>
       <c r="X99" t="inlineStr">
         <is>
-          <t>rentero_2020</t>
+          <t>rømerthomsen_2018</t>
         </is>
       </c>
       <c r="Y99" t="inlineStr">
@@ -10351,7 +10336,7 @@
         </is>
       </c>
       <c r="Z99">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="AA99" t="inlineStr">
         <is>
@@ -10360,7 +10345,7 @@
       </c>
       <c r="AB99" t="inlineStr">
         <is>
-          <t>rentero_2020</t>
+          <t>rømerthomsen_2018</t>
         </is>
       </c>
     </row>
@@ -10377,17 +10362,17 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Rømer Thomsen (2018)</t>
+          <t>Schoeler (2016a)</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Rømer Thomsen</t>
+          <t>Schoeler</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -10412,17 +10397,17 @@
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>RR</t>
+          <t>OR</t>
         </is>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>RømerThomsen</t>
+          <t>Schoeler</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
@@ -10432,12 +10417,12 @@
       </c>
       <c r="W100" t="inlineStr">
         <is>
-          <t>rømerthomsen_2018_p</t>
+          <t>schoeler_2016_p</t>
         </is>
       </c>
       <c r="X100" t="inlineStr">
         <is>
-          <t>rømerthomsen_2018</t>
+          <t>schoeler_2016</t>
         </is>
       </c>
       <c r="Y100" t="inlineStr">
@@ -10446,7 +10431,7 @@
         </is>
       </c>
       <c r="Z100">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="AA100" t="inlineStr">
         <is>
@@ -10455,93 +10440,103 @@
       </c>
       <c r="AB100" t="inlineStr">
         <is>
-          <t>rømerthomsen_2018</t>
+          <t>schoeler_2016</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Psychosis Population</t>
+          <t>Environmental Moderators</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
+          <t>Environmental Moderators</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Mackie (2013)</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Mackie</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Kiburi (2021)</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>adolescent cannabis use</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
           <t>any psychosis outcome</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>Schoeler (2016a)</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>Schoeler</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Athanassiou (2021)</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>cannabis use</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>any psychosis outcome</t>
-        </is>
-      </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>longitudinal</t>
+          <t>prospective cohort</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="N101" t="inlineStr">
-        <is>
-          <t>OR</t>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="R101" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>Schoeler</t>
+          <t>Mackie</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>EnvMod</t>
         </is>
       </c>
       <c r="W101" t="inlineStr">
         <is>
-          <t>schoeler_2016_p</t>
+          <t>mackie_2013_envmod</t>
         </is>
       </c>
       <c r="X101" t="inlineStr">
         <is>
-          <t>schoeler_2016</t>
+          <t>mackie_2013</t>
         </is>
       </c>
       <c r="Y101" t="inlineStr">
         <is>
-          <t>maybe</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="Z101">
-        <v>271</v>
+        <v>183</v>
       </c>
       <c r="AA101" t="inlineStr">
         <is>
@@ -10550,7 +10545,7 @@
       </c>
       <c r="AB101" t="inlineStr">
         <is>
-          <t>schoeler_2016</t>
+          <t>mackie_2013</t>
         </is>
       </c>
     </row>
@@ -10567,17 +10562,17 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Mackie (2013)</t>
+          <t>Manrique-Garcia (2012)</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Mackie</t>
+          <t>Manrique-Garcia</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -10597,22 +10592,22 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>prospective cohort</t>
+          <t>cohort</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="P102" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>2.78</t>
         </is>
       </c>
       <c r="R102" t="inlineStr">
@@ -10622,7 +10617,7 @@
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>Mackie</t>
+          <t>Manrique-Garcia</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
@@ -10632,30 +10627,30 @@
       </c>
       <c r="W102" t="inlineStr">
         <is>
-          <t>mackie_2013_envmod</t>
+          <t>manrique-garcia_2012_envmod</t>
         </is>
       </c>
       <c r="X102" t="inlineStr">
         <is>
-          <t>mackie_2013</t>
+          <t>manrique-garcia_2012</t>
         </is>
       </c>
       <c r="Y102" t="inlineStr">
         <is>
+          <t>maybe</t>
+        </is>
+      </c>
+      <c r="Z102">
+        <v>185</v>
+      </c>
+      <c r="AA102" t="inlineStr">
+        <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="Z102">
-        <v>184</v>
-      </c>
-      <c r="AA102" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
       <c r="AB102" t="inlineStr">
         <is>
-          <t>mackie_2013</t>
+          <t>manrique-garcia_2012</t>
         </is>
       </c>
     </row>
@@ -10672,17 +10667,17 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Manrique-Garcia (2012)</t>
+          <t>McGrath (2010)</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Manrique-Garcia</t>
+          <t>McGrath</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2010</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -10702,32 +10697,32 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>cohort</t>
+          <t>prospective cohort</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="P103" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="R103" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>Manrique-Garcia</t>
+          <t>McGrath</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
@@ -10737,21 +10732,21 @@
       </c>
       <c r="W103" t="inlineStr">
         <is>
-          <t>manrique-garcia_2012_envmod</t>
+          <t>mcgrath_2010_envmod</t>
         </is>
       </c>
       <c r="X103" t="inlineStr">
         <is>
-          <t>manrique-garcia_2012</t>
+          <t>mcgrath_2010</t>
         </is>
       </c>
       <c r="Y103" t="inlineStr">
         <is>
-          <t>maybe</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="Z103">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="AA103" t="inlineStr">
         <is>
@@ -10760,7 +10755,7 @@
       </c>
       <c r="AB103" t="inlineStr">
         <is>
-          <t>manrique-garcia_2012</t>
+          <t>mcgrath_2010</t>
         </is>
       </c>
     </row>
@@ -10777,27 +10772,27 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>McGrath (2010)</t>
+          <t>Bechtold (2015)</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>McGrath</t>
+          <t>Bechtold</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Kiburi (2021)</t>
+          <t>Hosseini(2019)</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>adolescent cannabis use</t>
+          <t>Age of first use</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -10807,22 +10802,17 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>prospective cohort</t>
+          <t>cohort</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>506</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>1.6</t>
-        </is>
-      </c>
-      <c r="O104" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="P104" t="inlineStr">
-        <is>
-          <t>2.77</t>
+          <t>in tabelle (supplementary material, Appendix 3)</t>
         </is>
       </c>
       <c r="R104" t="inlineStr">
@@ -10832,7 +10822,7 @@
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>McGrath</t>
+          <t>Bechtold</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
@@ -10842,30 +10832,30 @@
       </c>
       <c r="W104" t="inlineStr">
         <is>
-          <t>mcgrath_2010_envmod</t>
+          <t>bechtold_2015_envmod</t>
         </is>
       </c>
       <c r="X104" t="inlineStr">
         <is>
-          <t>mcgrath_2010</t>
+          <t>bechtold_2015</t>
         </is>
       </c>
       <c r="Y104" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>maybe</t>
         </is>
       </c>
       <c r="Z104">
-        <v>202</v>
+        <v>33</v>
       </c>
       <c r="AA104" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AB104" t="inlineStr">
         <is>
-          <t>mcgrath_2010</t>
+          <t>bechtold_2016</t>
         </is>
       </c>
     </row>
@@ -10882,17 +10872,17 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Bechtold (2015)</t>
+          <t>Henquet (2004)</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Bechtold</t>
+          <t>Henquet</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2004</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -10917,7 +10907,7 @@
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>506</t>
+          <t>2437</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
@@ -10927,12 +10917,12 @@
       </c>
       <c r="R105" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>Bechtold</t>
+          <t>Henquet</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
@@ -10942,12 +10932,12 @@
       </c>
       <c r="W105" t="inlineStr">
         <is>
-          <t>bechtold_2015_envmod</t>
+          <t>henquet_2004_envmod</t>
         </is>
       </c>
       <c r="X105" t="inlineStr">
         <is>
-          <t>bechtold_2015</t>
+          <t>henquet_2004</t>
         </is>
       </c>
       <c r="Y105" t="inlineStr">
@@ -10956,7 +10946,7 @@
         </is>
       </c>
       <c r="Z105">
-        <v>33</v>
+        <v>138</v>
       </c>
       <c r="AA105" t="inlineStr">
         <is>
@@ -10965,7 +10955,7 @@
       </c>
       <c r="AB105" t="inlineStr">
         <is>
-          <t>bechtold_2016</t>
+          <t>henquet_2005</t>
         </is>
       </c>
     </row>
@@ -10982,17 +10972,17 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Henquet (2004)</t>
+          <t>Di Forti (2014)</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Henquet</t>
+          <t>Di Forti</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -11017,7 +11007,7 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>2437</t>
+          <t>410</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
@@ -11032,7 +11022,7 @@
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>Henquet</t>
+          <t>DiForti</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
@@ -11042,12 +11032,12 @@
       </c>
       <c r="W106" t="inlineStr">
         <is>
-          <t>henquet_2004_envmod</t>
+          <t>diforti_2014_envmod</t>
         </is>
       </c>
       <c r="X106" t="inlineStr">
         <is>
-          <t>henquet_2004</t>
+          <t>diforti_2014</t>
         </is>
       </c>
       <c r="Y106" t="inlineStr">
@@ -11056,7 +11046,7 @@
         </is>
       </c>
       <c r="Z106">
-        <v>138</v>
+        <v>86</v>
       </c>
       <c r="AA106" t="inlineStr">
         <is>
@@ -11065,7 +11055,7 @@
       </c>
       <c r="AB106" t="inlineStr">
         <is>
-          <t>henquet_2005</t>
+          <t>diforti_2009</t>
         </is>
       </c>
     </row>
@@ -11082,27 +11072,27 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Di Forti (2014)</t>
+          <t>Bugra (2013)</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Di Forti</t>
+          <t>Bugra</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Hosseini(2019)</t>
+          <t>Robinson(2022)</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Age of first use</t>
+          <t>Daily use</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -11115,24 +11105,14 @@
           <t>cohort</t>
         </is>
       </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>410</t>
-        </is>
-      </c>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>in tabelle (supplementary material, Appendix 3)</t>
-        </is>
-      </c>
       <c r="R107" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>DiForti</t>
+          <t>Bugra</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
@@ -11142,12 +11122,12 @@
       </c>
       <c r="W107" t="inlineStr">
         <is>
-          <t>diforti_2014_envmod</t>
+          <t>bugra_2013_envmod</t>
         </is>
       </c>
       <c r="X107" t="inlineStr">
         <is>
-          <t>diforti_2014</t>
+          <t>bugra_2013</t>
         </is>
       </c>
       <c r="Y107" t="inlineStr">
@@ -11156,16 +11136,16 @@
         </is>
       </c>
       <c r="Z107">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="AA107" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="AB107" t="inlineStr">
         <is>
-          <t>diforti_2009</t>
+          <t>bugra_2013</t>
         </is>
       </c>
     </row>
@@ -11182,27 +11162,27 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Bugra (2013)</t>
+          <t>Marwaha (2018)</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Bugra</t>
+          <t>Marwaha</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Robinson(2022)</t>
+          <t>Godin(2022)</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Daily use</t>
+          <t>High cannabis use</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -11212,17 +11192,17 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>cohort</t>
+          <t>longitudinal</t>
         </is>
       </c>
       <c r="R108" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>Bugra</t>
+          <t>Marwaha</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
@@ -11232,12 +11212,12 @@
       </c>
       <c r="W108" t="inlineStr">
         <is>
-          <t>bugra_2013_envmod</t>
+          <t>marwaha_2018_envmod</t>
         </is>
       </c>
       <c r="X108" t="inlineStr">
         <is>
-          <t>bugra_2013</t>
+          <t>marwaha_2018</t>
         </is>
       </c>
       <c r="Y108" t="inlineStr">
@@ -11246,16 +11226,16 @@
         </is>
       </c>
       <c r="Z108">
-        <v>48</v>
+        <v>194</v>
       </c>
       <c r="AA108" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AB108" t="inlineStr">
         <is>
-          <t>bugra_2013</t>
+          <t>mizrahi_2014</t>
         </is>
       </c>
     </row>
@@ -11272,17 +11252,17 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Marwaha (2018)</t>
+          <t>Gage (2014)</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Marwaha</t>
+          <t>Gage</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -11307,12 +11287,12 @@
       </c>
       <c r="R109" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="U109" t="inlineStr">
         <is>
-          <t>Marwaha</t>
+          <t>Gage</t>
         </is>
       </c>
       <c r="V109" t="inlineStr">
@@ -11322,12 +11302,12 @@
       </c>
       <c r="W109" t="inlineStr">
         <is>
-          <t>marwaha_2018_envmod</t>
+          <t>gage_2014_envmod</t>
         </is>
       </c>
       <c r="X109" t="inlineStr">
         <is>
-          <t>marwaha_2018</t>
+          <t>gage_2014</t>
         </is>
       </c>
       <c r="Y109" t="inlineStr">
@@ -11336,16 +11316,16 @@
         </is>
       </c>
       <c r="Z109">
-        <v>195</v>
+        <v>114</v>
       </c>
       <c r="AA109" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="AB109" t="inlineStr">
         <is>
-          <t>mizrahi_2014</t>
+          <t>gage_2014</t>
         </is>
       </c>
     </row>
@@ -11362,27 +11342,27 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Gage (2014)</t>
+          <t>Leadbeater (2019)</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Gage</t>
+          <t>Leadbeater</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Godin(2022)</t>
+          <t>Polkosnik(2021)</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>High cannabis use</t>
+          <t>Low cannabis use</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -11392,17 +11372,17 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>longitudinal</t>
+          <t>prospective cohort</t>
         </is>
       </c>
       <c r="R110" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="U110" t="inlineStr">
         <is>
-          <t>Gage</t>
+          <t>Leadbeater</t>
         </is>
       </c>
       <c r="V110" t="inlineStr">
@@ -11412,21 +11392,21 @@
       </c>
       <c r="W110" t="inlineStr">
         <is>
-          <t>gage_2014_envmod</t>
+          <t>leadbeater_2019_envmod</t>
         </is>
       </c>
       <c r="X110" t="inlineStr">
         <is>
-          <t>gage_2014</t>
+          <t>leadbeater_2019</t>
         </is>
       </c>
       <c r="Y110" t="inlineStr">
         <is>
-          <t>maybe</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="Z110">
-        <v>114</v>
+        <v>175</v>
       </c>
       <c r="AA110" t="inlineStr">
         <is>
@@ -11435,7 +11415,7 @@
       </c>
       <c r="AB110" t="inlineStr">
         <is>
-          <t>gage_2014</t>
+          <t>leadbeater_2019</t>
         </is>
       </c>
     </row>
@@ -11452,17 +11432,17 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Leadbeater (2019)</t>
+          <t>Albertella (2018)</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Leadbeater</t>
+          <t>Albertella</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -11492,7 +11472,7 @@
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>Leadbeater</t>
+          <t>Albertella</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
@@ -11502,12 +11482,12 @@
       </c>
       <c r="W111" t="inlineStr">
         <is>
-          <t>leadbeater_2019_envmod</t>
+          <t>albertella_2018_envmod</t>
         </is>
       </c>
       <c r="X111" t="inlineStr">
         <is>
-          <t>leadbeater_2019</t>
+          <t>albertella_2018</t>
         </is>
       </c>
       <c r="Y111" t="inlineStr">
@@ -11516,104 +11496,14 @@
         </is>
       </c>
       <c r="Z111">
-        <v>176</v>
+        <v>8</v>
       </c>
       <c r="AA111" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AB111" t="inlineStr">
-        <is>
-          <t>leadbeater_2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>Environmental Moderators</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>Environmental Moderators</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>Albertella (2018)</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>Albertella</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Polkosnik(2021)</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>Low cannabis use</t>
-        </is>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>any psychosis outcome</t>
-        </is>
-      </c>
-      <c r="I112" t="inlineStr">
-        <is>
-          <t>prospective cohort</t>
-        </is>
-      </c>
-      <c r="R112" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="U112" t="inlineStr">
-        <is>
-          <t>Albertella</t>
-        </is>
-      </c>
-      <c r="V112" t="inlineStr">
-        <is>
-          <t>EnvMod</t>
-        </is>
-      </c>
-      <c r="W112" t="inlineStr">
-        <is>
-          <t>albertella_2018_envmod</t>
-        </is>
-      </c>
-      <c r="X112" t="inlineStr">
-        <is>
-          <t>albertella_2018</t>
-        </is>
-      </c>
-      <c r="Y112" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="Z112">
-        <v>8</v>
-      </c>
-      <c r="AA112" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="AB112" t="inlineStr">
         <is>
           <t>berger_2016</t>
         </is>
